--- a/Organização Projeção.xlsx
+++ b/Organização Projeção.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive - unb.br\Estatística (1)\7º Semestre\LabEst\Git\Eleicoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A6C4F3-C260-4748-9730-3FEB866278F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21A282F-BFDE-4461-B348-17DEE1052D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE8692FC-A571-4A20-B601-FDEAF4FC21AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,7 +152,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,9 +161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +497,7 @@
   <dimension ref="B10:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,18 +549,18 @@
       <c r="D11" s="2">
         <v>1000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.4</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f>1-E11</f>
         <v>0.6</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f>E11*C11</f>
         <v>200</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>F11*C11</f>
         <v>300</v>
       </c>
@@ -571,7 +568,7 @@
         <f>E11*D11</f>
         <v>400</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f>F11*D11</f>
         <v>600</v>
       </c>
@@ -586,18 +583,18 @@
       <c r="D12" s="2">
         <v>700</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>0.5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" ref="F12:F15" si="0">1-E12</f>
         <v>0.5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" ref="G12:G15" si="1">E12*C12</f>
         <v>150</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" ref="H12:H15" si="2">F12*C12</f>
         <v>150</v>
       </c>
@@ -605,7 +602,7 @@
         <f>E12*D12</f>
         <v>350</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f>F12*D12</f>
         <v>350</v>
       </c>
@@ -620,18 +617,18 @@
       <c r="D13" s="2">
         <v>4000</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>0.3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>489.99999999999994</v>
       </c>
@@ -639,7 +636,7 @@
         <f>E13*D13</f>
         <v>1200</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>F13*D13</f>
         <v>2800</v>
       </c>
@@ -652,30 +649,30 @@
         <v>150</v>
       </c>
       <c r="D14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E14" s="9">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="2"/>
         <v>45.000000000000007</v>
       </c>
       <c r="I14" s="3">
         <f>E14*D14</f>
-        <v>7000</v>
-      </c>
-      <c r="J14" s="5">
+        <v>6300</v>
+      </c>
+      <c r="J14" s="4">
         <f>F14*D14</f>
-        <v>3000.0000000000005</v>
+        <v>2700.0000000000005</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -688,18 +685,18 @@
       <c r="D15" s="2">
         <v>1500</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>0.6</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -707,7 +704,7 @@
         <f>E15*D15</f>
         <v>900</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f>F15*D15</f>
         <v>600</v>
       </c>
@@ -726,32 +723,32 @@
       </c>
       <c r="I16" s="3">
         <f>SUM(I11:I15)</f>
-        <v>9850</v>
+        <v>9150</v>
       </c>
       <c r="J16" s="3">
         <f>SUM(J11:J15)</f>
-        <v>7350</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>G16/(G16+H16)</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f>H16/(G16+H16)</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>I16/(I16+J16)</f>
-        <v>0.57267441860465118</v>
-      </c>
-      <c r="J17" s="7">
+        <v>0.56481481481481477</v>
+      </c>
+      <c r="J17" s="6">
         <f>J16/(I16+J16)</f>
-        <v>0.42732558139534882</v>
+        <v>0.43518518518518517</v>
       </c>
     </row>
   </sheetData>
